--- a/formats/excel/Formats RSA ANO 11.xlsx
+++ b/formats/excel/Formats RSA ANO 11.xlsx
@@ -118,6 +118,9 @@
     <t>NOSEJ</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>N° Séjour</t>
   </si>
   <si>
@@ -302,9 +305,6 @@
   </si>
   <si>
     <t>NBEVEN</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
   <si>
     <t>Nb venues de la facture</t>
@@ -378,10 +378,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -397,6 +397,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -405,19 +412,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,47 +434,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,10 +458,48 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,8 +533,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,13 +547,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -563,19 +563,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,37 +671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +689,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,103 +731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,15 +790,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -825,6 +816,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,156 +858,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1335,11 +1335,11 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1656,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1667,7 +1667,7 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1680,7 +1680,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1688,7 +1688,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1709,7 +1709,7 @@
         <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1722,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1730,7 +1730,7 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1751,7 +1751,7 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1772,7 +1772,7 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1793,7 +1793,7 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1806,7 +1806,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1827,7 +1827,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1835,7 +1835,7 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1848,7 +1848,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1856,7 +1856,7 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1869,7 +1869,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1877,7 +1877,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1890,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1898,7 +1898,7 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1919,7 +1919,7 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1932,7 +1932,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1940,7 +1940,7 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1953,7 +1953,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:6">
@@ -1961,7 +1961,7 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1974,7 +1974,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1982,7 +1982,7 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2003,7 +2003,7 @@
         <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2016,7 +2016,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2024,7 +2024,7 @@
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2037,7 +2037,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2045,7 +2045,7 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2079,7 +2079,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2087,7 +2087,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2100,7 +2100,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2108,7 +2108,7 @@
         <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2129,7 +2129,7 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2142,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2150,7 +2150,7 @@
         <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2163,7 +2163,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2171,7 +2171,7 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2184,7 +2184,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2192,7 +2192,7 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -2205,7 +2205,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2213,7 +2213,7 @@
         <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -2226,7 +2226,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2255,7 +2255,7 @@
         <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2268,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2276,7 +2276,7 @@
         <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2289,7 +2289,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2297,7 +2297,7 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
         <v>97</v>
